--- a/Sprint_2/BurndownChartForSprint2.xlsx
+++ b/Sprint_2/BurndownChartForSprint2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Time (Days)</t>
   </si>
@@ -25,75 +25,6 @@
   </si>
   <si>
     <t>Work Remaining</t>
-  </si>
-  <si>
-    <t>popup window for add</t>
-  </si>
-  <si>
-    <t>add to database</t>
-  </si>
-  <si>
-    <t>display custom fields</t>
-  </si>
-  <si>
-    <t>delete from database</t>
-  </si>
-  <si>
-    <t>modify database</t>
-  </si>
-  <si>
-    <t>popup for modify</t>
-  </si>
-  <si>
-    <t>move code</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>day 1</t>
-  </si>
-  <si>
-    <t>day 2</t>
-  </si>
-  <si>
-    <t>day 3</t>
-  </si>
-  <si>
-    <t>day 4</t>
-  </si>
-  <si>
-    <t>day 5</t>
-  </si>
-  <si>
-    <t>day 6</t>
-  </si>
-  <si>
-    <t>day 7</t>
-  </si>
-  <si>
-    <t>day 8</t>
-  </si>
-  <si>
-    <t>day 9</t>
-  </si>
-  <si>
-    <t>day 10</t>
-  </si>
-  <si>
-    <t>day 11</t>
-  </si>
-  <si>
-    <t>day 12</t>
-  </si>
-  <si>
-    <t>day 13</t>
-  </si>
-  <si>
-    <t>day 14</t>
   </si>
 </sst>
 </file>
@@ -299,7 +230,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -376,49 +307,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,11 +364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146410880"/>
-        <c:axId val="146411456"/>
+        <c:axId val="155363008"/>
+        <c:axId val="155363584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146410880"/>
+        <c:axId val="155363008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -468,14 +399,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146411456"/>
+        <c:crossAx val="155363584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146411456"/>
+        <c:axId val="155363584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -506,7 +437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146410880"/>
+        <c:crossAx val="155363008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -856,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -892,11 +823,9 @@
       <c r="B3" s="1"/>
       <c r="C3" s="3">
         <f>C2-2</f>
-        <v>36</v>
-      </c>
-      <c r="D3" s="5">
-        <v>27</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -905,11 +834,9 @@
       <c r="B4" s="1"/>
       <c r="C4" s="3">
         <f>C3</f>
-        <v>36</v>
-      </c>
-      <c r="D4" s="2">
-        <v>28</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -918,11 +845,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="3">
         <f>C4</f>
-        <v>36</v>
-      </c>
-      <c r="D5" s="2">
-        <v>29</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -931,11 +856,9 @@
       <c r="B6" s="1"/>
       <c r="C6" s="3">
         <f>C5</f>
-        <v>36</v>
-      </c>
-      <c r="D6" s="6">
-        <v>30</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -944,11 +867,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="3">
         <f>C6-3</f>
-        <v>33</v>
-      </c>
-      <c r="D7" s="6">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -957,11 +878,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="3">
         <f>C7-1</f>
-        <v>32</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -970,11 +889,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="3">
         <f>C8-2</f>
-        <v>30</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -983,11 +900,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="3">
         <f>C9-2</f>
-        <v>28</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -996,11 +911,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="3">
         <f>C10-2</f>
-        <v>26</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1009,11 +922,9 @@
       <c r="B12" s="1"/>
       <c r="C12" s="3">
         <f>C11-3</f>
-        <v>23</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1022,11 +933,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="3">
         <f>C12</f>
-        <v>23</v>
-      </c>
-      <c r="D13" s="6">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1035,11 +944,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="3">
         <f>C13-2</f>
-        <v>21</v>
-      </c>
-      <c r="D14" s="6">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1048,14 +955,12 @@
       <c r="B15" s="1"/>
       <c r="C15" s="4">
         <f>C14-6</f>
-        <v>15</v>
-      </c>
-      <c r="D15" s="6">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="W15">
         <f>25-W18</f>
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1066,12 +971,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="4">
-        <f>C15-10</f>
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
-        <v>9</v>
-      </c>
+        <f>C15-17</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1084,65 +987,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="H18">
-        <f>SUM(H21:H27)</f>
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <f>SUM(I21:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ref="J18:U18" si="0">SUM(J21:J27)</f>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="W18">
         <f>SUM(H18:U18)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1150,205 +997,27 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="H19">
-        <v>27</v>
-      </c>
-      <c r="I19">
-        <v>28</v>
-      </c>
-      <c r="J19">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <v>30</v>
-      </c>
-      <c r="L19">
-        <v>31</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>4</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>6</v>
-      </c>
-      <c r="S19">
-        <v>7</v>
-      </c>
-      <c r="T19">
-        <v>8</v>
-      </c>
-      <c r="U19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" t="s">
-        <v>24</v>
-      </c>
-      <c r="U20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G27" s="7"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G30" s="7"/>
